--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r104_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/r104_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2516" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3916" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -390,10 +402,10 @@
       <c r="I9">
         <f>((C9-C8)^2+(D9- D8)^2)^.5</f>
       </c>
-      <c r="J9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K9" s="2" t="s">
+      <c r="J9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L9" t="n">
@@ -437,28 +449,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="2">
+      <c r="A11" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C11" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D11" t="s" s="2">
+      <c r="C11" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D11" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -483,28 +495,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="B13" t="s" s="2">
+      <c r="B13" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C13" t="s" s="2">
+      <c r="C13" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D13" t="s" s="2">
+      <c r="D13" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E13" t="s" s="2">
+      <c r="E13" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="2">
+      <c r="F13" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G13" t="s" s="2">
+      <c r="G13" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H13" t="s" s="2">
+      <c r="H13" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I13" t="s" s="2">
+      <c r="I13" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -563,10 +575,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K15" s="2" t="s">
+      <c r="J15" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -610,28 +622,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D17" t="s" s="2">
+      <c r="C17" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -656,28 +668,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -881,10 +893,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K26" s="2" t="s">
+      <c r="J26" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -928,28 +940,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D28" t="s" s="2">
+      <c r="C28" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -974,28 +986,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1170,10 +1182,10 @@
       <c r="I36">
         <f>((C36-C35)^2+(D36- D35)^2)^.5</f>
       </c>
-      <c r="J36" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K36" s="2" t="s">
+      <c r="J36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L36" t="n">
@@ -1217,28 +1229,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="2">
+      <c r="A38" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C38" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D38" t="s" s="2">
+      <c r="C38" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D38" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1263,28 +1275,28 @@
       </c>
     </row>
     <row r="40">
-      <c r="B40" t="s" s="2">
+      <c r="B40" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C40" t="s" s="2">
+      <c r="C40" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D40" t="s" s="2">
+      <c r="D40" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E40" t="s" s="2">
+      <c r="E40" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F40" t="s" s="2">
+      <c r="F40" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G40" t="s" s="2">
+      <c r="G40" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H40" t="s" s="2">
+      <c r="H40" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I40" t="s" s="2">
+      <c r="I40" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1517,10 +1529,10 @@
       <c r="I48">
         <f>((C48-C47)^2+(D48- D47)^2)^.5</f>
       </c>
-      <c r="J48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K48" s="2" t="s">
+      <c r="J48" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K48" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L48" t="n">
@@ -1564,28 +1576,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="s" s="2">
+      <c r="A50" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C50" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D50" t="s" s="2">
+      <c r="C50" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D50" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1610,28 +1622,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I52" t="s" s="2">
+      <c r="I52" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1748,10 +1760,10 @@
       <c r="I56">
         <f>((C56-C55)^2+(D56- D55)^2)^.5</f>
       </c>
-      <c r="J56" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K56" s="2" t="s">
+      <c r="J56" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K56" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L56" t="n">
@@ -1795,28 +1807,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="s" s="2">
+      <c r="A58" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C58" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D58" t="s" s="2">
+      <c r="C58" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D58" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1841,28 +1853,28 @@
       </c>
     </row>
     <row r="60">
-      <c r="B60" t="s" s="2">
+      <c r="B60" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C60" t="s" s="2">
+      <c r="C60" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D60" t="s" s="2">
+      <c r="D60" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E60" t="s" s="2">
+      <c r="E60" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F60" t="s" s="2">
+      <c r="F60" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G60" t="s" s="2">
+      <c r="G60" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H60" t="s" s="2">
+      <c r="H60" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I60" t="s" s="2">
+      <c r="I60" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1979,10 +1991,10 @@
       <c r="I64">
         <f>((C64-C63)^2+(D64- D63)^2)^.5</f>
       </c>
-      <c r="J64" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K64" s="2" t="s">
+      <c r="J64" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K64" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L64" t="n">
@@ -2026,28 +2038,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="s" s="2">
+      <c r="A66" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C66" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D66" t="s" s="2">
+      <c r="C66" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D66" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2072,28 +2084,28 @@
       </c>
     </row>
     <row r="68">
-      <c r="B68" t="s" s="2">
+      <c r="B68" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C68" t="s" s="2">
+      <c r="C68" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D68" t="s" s="2">
+      <c r="D68" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E68" t="s" s="2">
+      <c r="E68" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F68" t="s" s="2">
+      <c r="F68" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G68" t="s" s="2">
+      <c r="G68" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H68" t="s" s="2">
+      <c r="H68" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I68" t="s" s="2">
+      <c r="I68" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2181,10 +2193,10 @@
       <c r="I71">
         <f>((C71-C70)^2+(D71- D70)^2)^.5</f>
       </c>
-      <c r="J71" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K71" s="2" t="s">
+      <c r="J71" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K71" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L71" t="n">
@@ -2228,28 +2240,28 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="s" s="2">
+      <c r="A73" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B73" t="s" s="2">
+      <c r="B73" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C73" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D73" t="s" s="2">
+      <c r="C73" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D73" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E73" t="s" s="2">
+      <c r="E73" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F73" t="s" s="2">
+      <c r="F73" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G73" t="s" s="2">
+      <c r="G73" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H73" t="s" s="2">
+      <c r="H73" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2274,28 +2286,28 @@
       </c>
     </row>
     <row r="75">
-      <c r="B75" t="s" s="2">
+      <c r="B75" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C75" t="s" s="2">
+      <c r="C75" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D75" t="s" s="2">
+      <c r="D75" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E75" t="s" s="2">
+      <c r="E75" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F75" t="s" s="2">
+      <c r="F75" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G75" t="s" s="2">
+      <c r="G75" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H75" t="s" s="2">
+      <c r="H75" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I75" t="s" s="2">
+      <c r="I75" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2441,10 +2453,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2488,28 +2500,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2534,28 +2546,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2643,10 +2655,10 @@
       <c r="I87">
         <f>((C87-C86)^2+(D87- D86)^2)^.5</f>
       </c>
-      <c r="J87" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K87" s="2" t="s">
+      <c r="J87" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L87" t="n">
@@ -2690,28 +2702,28 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="s" s="2">
+      <c r="A89" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B89" t="s" s="2">
+      <c r="B89" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C89" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D89" t="s" s="2">
+      <c r="C89" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D89" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E89" t="s" s="2">
+      <c r="E89" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F89" t="s" s="2">
+      <c r="F89" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G89" t="s" s="2">
+      <c r="G89" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H89" t="s" s="2">
+      <c r="H89" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2736,28 +2748,28 @@
       </c>
     </row>
     <row r="91">
-      <c r="B91" t="s" s="2">
+      <c r="B91" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C91" t="s" s="2">
+      <c r="C91" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D91" t="s" s="2">
+      <c r="D91" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E91" t="s" s="2">
+      <c r="E91" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F91" t="s" s="2">
+      <c r="F91" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G91" t="s" s="2">
+      <c r="G91" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H91" t="s" s="2">
+      <c r="H91" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I91" t="s" s="2">
+      <c r="I91" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2874,10 +2886,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K95" s="2" t="s">
+      <c r="J95" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2921,28 +2933,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D97" t="s" s="2">
+      <c r="C97" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2967,28 +2979,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3134,10 +3146,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K104" s="2" t="s">
+      <c r="J104" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3181,28 +3193,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D106" t="s" s="2">
+      <c r="C106" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3227,28 +3239,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3336,10 +3348,10 @@
       <c r="I111">
         <f>((C111-C110)^2+(D111- D110)^2)^.5</f>
       </c>
-      <c r="J111" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K111" s="2" t="s">
+      <c r="J111" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K111" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L111" t="n">
@@ -3383,28 +3395,28 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="s" s="2">
+      <c r="A113" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B113" t="s" s="2">
+      <c r="B113" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C113" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D113" t="s" s="2">
+      <c r="C113" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D113" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E113" t="s" s="2">
+      <c r="E113" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F113" t="s" s="2">
+      <c r="F113" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G113" t="s" s="2">
+      <c r="G113" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H113" t="s" s="2">
+      <c r="H113" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3429,28 +3441,28 @@
       </c>
     </row>
     <row r="115">
-      <c r="B115" t="s" s="2">
+      <c r="B115" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C115" t="s" s="2">
+      <c r="C115" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D115" t="s" s="2">
+      <c r="D115" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E115" t="s" s="2">
+      <c r="E115" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F115" t="s" s="2">
+      <c r="F115" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G115" t="s" s="2">
+      <c r="G115" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H115" t="s" s="2">
+      <c r="H115" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I115" t="s" s="2">
+      <c r="I115" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3596,10 +3608,10 @@
       <c r="I120">
         <f>((C120-C119)^2+(D120- D119)^2)^.5</f>
       </c>
-      <c r="J120" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K120" s="2" t="s">
+      <c r="J120" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K120" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L120" t="n">
@@ -3643,28 +3655,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="s" s="2">
+      <c r="A122" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C122" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D122" t="s" s="2">
+      <c r="C122" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D122" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3689,28 +3701,28 @@
       </c>
     </row>
     <row r="124">
-      <c r="B124" t="s" s="2">
+      <c r="B124" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C124" t="s" s="2">
+      <c r="C124" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D124" t="s" s="2">
+      <c r="D124" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E124" t="s" s="2">
+      <c r="E124" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F124" t="s" s="2">
+      <c r="F124" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G124" t="s" s="2">
+      <c r="G124" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H124" t="s" s="2">
+      <c r="H124" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I124" t="s" s="2">
+      <c r="I124" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3856,10 +3868,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K129" s="2" t="s">
+      <c r="J129" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3903,28 +3915,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D131" t="s" s="2">
+      <c r="C131" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3949,28 +3961,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4029,10 +4041,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K135" s="2" t="s">
+      <c r="J135" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4076,28 +4088,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D137" t="s" s="2">
+      <c r="C137" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4122,28 +4134,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4231,10 +4243,10 @@
       <c r="I142">
         <f>((C142-C141)^2+(D142- D141)^2)^.5</f>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="J142" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K142" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L142" t="n">
@@ -4278,28 +4290,28 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="s" s="2">
+      <c r="A144" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B144" t="s" s="2">
+      <c r="B144" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C144" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D144" t="s" s="2">
+      <c r="C144" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D144" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E144" t="s" s="2">
+      <c r="E144" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F144" t="s" s="2">
+      <c r="F144" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G144" t="s" s="2">
+      <c r="G144" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H144" t="s" s="2">
+      <c r="H144" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4324,28 +4336,28 @@
       </c>
     </row>
     <row r="146">
-      <c r="B146" t="s" s="2">
+      <c r="B146" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C146" t="s" s="2">
+      <c r="C146" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D146" t="s" s="2">
+      <c r="D146" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E146" t="s" s="2">
+      <c r="E146" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F146" t="s" s="2">
+      <c r="F146" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G146" t="s" s="2">
+      <c r="G146" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H146" t="s" s="2">
+      <c r="H146" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I146" t="s" s="2">
+      <c r="I146" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4433,10 +4445,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="2" t="s">
+      <c r="J149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4480,28 +4492,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4526,28 +4538,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4606,10 +4618,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4653,28 +4665,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4699,28 +4711,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4808,10 +4820,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4855,28 +4867,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4901,28 +4913,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5010,10 +5022,10 @@
       <c r="I169">
         <f>((C169-C168)^2+(D169- D168)^2)^.5</f>
       </c>
-      <c r="J169" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K169" s="2" t="s">
+      <c r="J169" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K169" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L169" t="n">
@@ -5057,28 +5069,28 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="s" s="2">
+      <c r="A171" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B171" t="s" s="2">
+      <c r="B171" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C171" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D171" t="s" s="2">
+      <c r="C171" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D171" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E171" t="s" s="2">
+      <c r="E171" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F171" t="s" s="2">
+      <c r="F171" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G171" t="s" s="2">
+      <c r="G171" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H171" t="s" s="2">
+      <c r="H171" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5103,28 +5115,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I173" t="s" s="2">
+      <c r="I173" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5212,10 +5224,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5259,28 +5271,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5305,28 +5317,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5530,10 +5542,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5577,28 +5589,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5623,28 +5635,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5761,10 +5773,10 @@
       <c r="I195">
         <f>((C195-C194)^2+(D195- D194)^2)^.5</f>
       </c>
-      <c r="J195" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K195" s="2" t="s">
+      <c r="J195" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K195" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L195" t="n">
@@ -5808,28 +5820,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="s" s="2">
+      <c r="A197" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C197" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D197" t="s" s="2">
+      <c r="C197" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D197" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5854,28 +5866,28 @@
       </c>
     </row>
     <row r="199">
-      <c r="B199" t="s" s="2">
+      <c r="B199" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C199" t="s" s="2">
+      <c r="C199" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D199" t="s" s="2">
+      <c r="D199" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E199" t="s" s="2">
+      <c r="E199" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F199" t="s" s="2">
+      <c r="F199" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G199" t="s" s="2">
+      <c r="G199" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H199" t="s" s="2">
+      <c r="H199" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I199" t="s" s="2">
+      <c r="I199" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5963,10 +5975,10 @@
       <c r="I202">
         <f>((C202-C201)^2+(D202- D201)^2)^.5</f>
       </c>
-      <c r="J202" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K202" s="2" t="s">
+      <c r="J202" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K202" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L202" t="n">
@@ -6010,28 +6022,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="s" s="2">
+      <c r="A204" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C204" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D204" t="s" s="2">
+      <c r="C204" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D204" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6056,28 +6068,28 @@
       </c>
     </row>
     <row r="206">
-      <c r="B206" t="s" s="2">
+      <c r="B206" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C206" t="s" s="2">
+      <c r="C206" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D206" t="s" s="2">
+      <c r="D206" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E206" t="s" s="2">
+      <c r="E206" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F206" t="s" s="2">
+      <c r="F206" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G206" t="s" s="2">
+      <c r="G206" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H206" t="s" s="2">
+      <c r="H206" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I206" t="s" s="2">
+      <c r="I206" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6165,10 +6177,10 @@
       <c r="I209">
         <f>((C209-C208)^2+(D209- D208)^2)^.5</f>
       </c>
-      <c r="J209" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K209" s="2" t="s">
+      <c r="J209" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K209" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L209" t="n">
@@ -6212,28 +6224,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="s" s="2">
+      <c r="A211" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C211" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D211" t="s" s="2">
+      <c r="C211" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D211" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6258,28 +6270,28 @@
       </c>
     </row>
     <row r="213">
-      <c r="B213" t="s" s="2">
+      <c r="B213" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C213" t="s" s="2">
+      <c r="C213" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D213" t="s" s="2">
+      <c r="D213" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E213" t="s" s="2">
+      <c r="E213" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F213" t="s" s="2">
+      <c r="F213" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G213" t="s" s="2">
+      <c r="G213" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H213" t="s" s="2">
+      <c r="H213" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I213" t="s" s="2">
+      <c r="I213" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6367,10 +6379,10 @@
       <c r="I216">
         <f>((C216-C215)^2+(D216- D215)^2)^.5</f>
       </c>
-      <c r="J216" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K216" s="2" t="s">
+      <c r="J216" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K216" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L216" t="n">
@@ -6414,28 +6426,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="s" s="2">
+      <c r="A218" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C218" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D218" t="s" s="2">
+      <c r="C218" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D218" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6460,28 +6472,28 @@
       </c>
     </row>
     <row r="220">
-      <c r="B220" t="s" s="2">
+      <c r="B220" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C220" t="s" s="2">
+      <c r="C220" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D220" t="s" s="2">
+      <c r="D220" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E220" t="s" s="2">
+      <c r="E220" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F220" t="s" s="2">
+      <c r="F220" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G220" t="s" s="2">
+      <c r="G220" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H220" t="s" s="2">
+      <c r="H220" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I220" t="s" s="2">
+      <c r="I220" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6598,10 +6610,10 @@
       <c r="I224">
         <f>((C224-C223)^2+(D224- D223)^2)^.5</f>
       </c>
-      <c r="J224" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K224" s="2" t="s">
+      <c r="J224" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K224" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L224" t="n">
@@ -6645,28 +6657,28 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="s" s="2">
+      <c r="A226" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B226" t="s" s="2">
+      <c r="B226" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C226" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D226" t="s" s="2">
+      <c r="C226" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D226" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E226" t="s" s="2">
+      <c r="E226" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F226" t="s" s="2">
+      <c r="F226" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G226" t="s" s="2">
+      <c r="G226" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H226" t="s" s="2">
+      <c r="H226" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6691,28 +6703,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C228" t="s" s="2">
+      <c r="C228" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D228" t="s" s="2">
+      <c r="D228" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I228" t="s" s="2">
+      <c r="I228" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6771,10 +6783,10 @@
       <c r="I230">
         <f>((C230-C229)^2+(D230- D229)^2)^.5</f>
       </c>
-      <c r="J230" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K230" s="2" t="s">
+      <c r="J230" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K230" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L230" t="n">
@@ -6818,28 +6830,28 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="s" s="2">
+      <c r="A232" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B232" t="s" s="2">
+      <c r="B232" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C232" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D232" t="s" s="2">
+      <c r="C232" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D232" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E232" t="s" s="2">
+      <c r="E232" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F232" t="s" s="2">
+      <c r="F232" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G232" t="s" s="2">
+      <c r="G232" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H232" t="s" s="2">
+      <c r="H232" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6864,28 +6876,28 @@
       </c>
     </row>
     <row r="234">
-      <c r="B234" t="s" s="2">
+      <c r="B234" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C234" t="s" s="2">
+      <c r="C234" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D234" t="s" s="2">
+      <c r="D234" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E234" t="s" s="2">
+      <c r="E234" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F234" t="s" s="2">
+      <c r="F234" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G234" t="s" s="2">
+      <c r="G234" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H234" t="s" s="2">
+      <c r="H234" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I234" t="s" s="2">
+      <c r="I234" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6973,10 +6985,10 @@
       <c r="I237">
         <f>((C237-C236)^2+(D237- D236)^2)^.5</f>
       </c>
-      <c r="J237" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K237" s="2" t="s">
+      <c r="J237" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K237" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L237" t="n">
@@ -7020,28 +7032,28 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="s" s="2">
+      <c r="A239" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B239" t="s" s="2">
+      <c r="B239" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C239" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D239" t="s" s="2">
+      <c r="C239" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D239" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E239" t="s" s="2">
+      <c r="E239" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F239" t="s" s="2">
+      <c r="F239" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G239" t="s" s="2">
+      <c r="G239" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H239" t="s" s="2">
+      <c r="H239" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7066,28 +7078,28 @@
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="2">
+      <c r="B241" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C241" t="s" s="2">
+      <c r="C241" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D241" t="s" s="2">
+      <c r="D241" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E241" t="s" s="2">
+      <c r="E241" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F241" t="s" s="2">
+      <c r="F241" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G241" t="s" s="2">
+      <c r="G241" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H241" t="s" s="2">
+      <c r="H241" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I241" t="s" s="2">
+      <c r="I241" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7175,10 +7187,10 @@
       <c r="I244">
         <f>((C244-C243)^2+(D244- D243)^2)^.5</f>
       </c>
-      <c r="J244" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K244" s="2" t="s">
+      <c r="J244" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K244" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L244" t="n">
@@ -7222,28 +7234,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="s" s="2">
+      <c r="A246" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C246" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D246" t="s" s="2">
+      <c r="C246" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D246" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7268,28 +7280,28 @@
       </c>
     </row>
     <row r="248">
-      <c r="B248" t="s" s="2">
+      <c r="B248" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C248" t="s" s="2">
+      <c r="C248" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D248" t="s" s="2">
+      <c r="D248" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E248" t="s" s="2">
+      <c r="E248" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F248" t="s" s="2">
+      <c r="F248" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G248" t="s" s="2">
+      <c r="G248" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H248" t="s" s="2">
+      <c r="H248" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I248" t="s" s="2">
+      <c r="I248" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7348,10 +7360,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7395,28 +7407,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7441,28 +7453,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7550,10 +7562,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="2" t="s">
+      <c r="J257" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7597,28 +7609,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="2">
+      <c r="A259" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="2">
+      <c r="C259" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7643,28 +7655,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="2">
+      <c r="C261" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="2">
+      <c r="D261" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="2">
+      <c r="I261" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7752,10 +7764,10 @@
       <c r="I264">
         <f>((C264-C263)^2+(D264- D263)^2)^.5</f>
       </c>
-      <c r="J264" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K264" s="2" t="s">
+      <c r="J264" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K264" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L264" t="n">
@@ -7799,28 +7811,28 @@
       </c>
     </row>
     <row r="266">
-      <c r="A266" t="s" s="2">
+      <c r="A266" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B266" t="s" s="2">
+      <c r="B266" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C266" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D266" t="s" s="2">
+      <c r="C266" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D266" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E266" t="s" s="2">
+      <c r="E266" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F266" t="s" s="2">
+      <c r="F266" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G266" t="s" s="2">
+      <c r="G266" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H266" t="s" s="2">
+      <c r="H266" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7845,28 +7857,28 @@
       </c>
     </row>
     <row r="268">
-      <c r="B268" t="s" s="2">
+      <c r="B268" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C268" t="s" s="2">
+      <c r="C268" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D268" t="s" s="2">
+      <c r="D268" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E268" t="s" s="2">
+      <c r="E268" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F268" t="s" s="2">
+      <c r="F268" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G268" t="s" s="2">
+      <c r="G268" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H268" t="s" s="2">
+      <c r="H268" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I268" t="s" s="2">
+      <c r="I268" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7925,10 +7937,10 @@
       <c r="I270">
         <f>((C270-C269)^2+(D270- D269)^2)^.5</f>
       </c>
-      <c r="J270" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K270" s="2" t="s">
+      <c r="J270" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K270" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L270" t="n">
@@ -7972,28 +7984,28 @@
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="s" s="2">
+      <c r="A272" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B272" t="s" s="2">
+      <c r="B272" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C272" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D272" t="s" s="2">
+      <c r="C272" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D272" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E272" t="s" s="2">
+      <c r="E272" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F272" t="s" s="2">
+      <c r="F272" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G272" t="s" s="2">
+      <c r="G272" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H272" t="s" s="2">
+      <c r="H272" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8018,28 +8030,28 @@
       </c>
     </row>
     <row r="274">
-      <c r="B274" t="s" s="2">
+      <c r="B274" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C274" t="s" s="2">
+      <c r="C274" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D274" t="s" s="2">
+      <c r="D274" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E274" t="s" s="2">
+      <c r="E274" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F274" t="s" s="2">
+      <c r="F274" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G274" t="s" s="2">
+      <c r="G274" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H274" t="s" s="2">
+      <c r="H274" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I274" t="s" s="2">
+      <c r="I274" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8127,10 +8139,10 @@
       <c r="I277">
         <f>((C277-C276)^2+(D277- D276)^2)^.5</f>
       </c>
-      <c r="J277" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K277" s="2" t="s">
+      <c r="J277" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K277" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L277" t="n">
@@ -8174,28 +8186,28 @@
       </c>
     </row>
     <row r="279">
-      <c r="A279" t="s" s="2">
+      <c r="A279" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B279" t="s" s="2">
+      <c r="B279" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C279" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D279" t="s" s="2">
+      <c r="C279" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D279" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E279" t="s" s="2">
+      <c r="E279" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F279" t="s" s="2">
+      <c r="F279" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G279" t="s" s="2">
+      <c r="G279" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H279" t="s" s="2">
+      <c r="H279" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8220,28 +8232,28 @@
       </c>
     </row>
     <row r="281">
-      <c r="B281" t="s" s="2">
+      <c r="B281" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C281" t="s" s="2">
+      <c r="C281" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D281" t="s" s="2">
+      <c r="D281" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E281" t="s" s="2">
+      <c r="E281" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F281" t="s" s="2">
+      <c r="F281" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G281" t="s" s="2">
+      <c r="G281" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H281" t="s" s="2">
+      <c r="H281" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I281" t="s" s="2">
+      <c r="I281" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8329,10 +8341,10 @@
       <c r="I284">
         <f>((C284-C283)^2+(D284- D283)^2)^.5</f>
       </c>
-      <c r="J284" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K284" s="2" t="s">
+      <c r="J284" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K284" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L284" t="n">
@@ -8376,28 +8388,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="A286" t="s" s="2">
+      <c r="A286" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C286" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D286" t="s" s="2">
+      <c r="C286" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D286" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8422,28 +8434,28 @@
       </c>
     </row>
     <row r="288">
-      <c r="B288" t="s" s="2">
+      <c r="B288" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C288" t="s" s="2">
+      <c r="C288" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D288" t="s" s="2">
+      <c r="D288" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E288" t="s" s="2">
+      <c r="E288" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F288" t="s" s="2">
+      <c r="F288" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G288" t="s" s="2">
+      <c r="G288" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H288" t="s" s="2">
+      <c r="H288" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I288" t="s" s="2">
+      <c r="I288" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8531,10 +8543,10 @@
       <c r="I291">
         <f>((C291-C290)^2+(D291- D290)^2)^.5</f>
       </c>
-      <c r="J291" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K291" s="2" t="s">
+      <c r="J291" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K291" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L291" t="n">
